--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5740</v>
+        <v>7181</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Alice Pinto</t>
+          <t>Emilly Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>11081.82</v>
+        <v>7322.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21016</v>
+        <v>11633</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza Melo</t>
+          <t>João Miguel Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>10409.36</v>
+        <v>6452.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42107</v>
+        <v>45835</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Letícia Aragão</t>
+          <t>Alexandre da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>11876.56</v>
+        <v>3931.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23984</v>
+        <v>29041</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucca Barbosa</t>
+          <t>Lucca Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>10321.35</v>
+        <v>10693.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21551</v>
+        <v>13109</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heloísa Gonçalves</t>
+          <t>Nathan Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>3026.75</v>
+        <v>6124.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57076</v>
+        <v>90551</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Breno da Costa</t>
+          <t>Luiz Fernando Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>10100.73</v>
+        <v>6492.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6805</v>
+        <v>45115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Henrique Aragão</t>
+          <t>Maitê Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>11195.03</v>
+        <v>5663.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10795</v>
+        <v>46941</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Catarina Martins</t>
+          <t>Dr. Murilo Castro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>11537.96</v>
+        <v>9716.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13124</v>
+        <v>27161</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Felipe Moreira</t>
+          <t>Nathan Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>9289.299999999999</v>
+        <v>5671.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18787</v>
+        <v>86992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lorenzo Nunes</t>
+          <t>Gabriel Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>6739.01</v>
+        <v>5769.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7181</v>
+        <v>13076</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emilly Dias</t>
+          <t>Luiz Henrique Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>7322.88</v>
+        <v>8442.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11633</v>
+        <v>59043</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Miguel Sales</t>
+          <t>Vitor da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>6452.75</v>
+        <v>11801.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>45835</v>
+        <v>13976</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre da Cruz</t>
+          <t>Manuela Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>3931.56</v>
+        <v>4182.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29041</v>
+        <v>78670</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucca Costa</t>
+          <t>Camila Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>10693.73</v>
+        <v>5747.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13109</v>
+        <v>69227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Freitas</t>
+          <t>Joana Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6124.31</v>
+        <v>2680.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90551</v>
+        <v>27211</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Fernando Silva</t>
+          <t>Bryan Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>6492.61</v>
+        <v>11142.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45115</v>
+        <v>68427</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maitê Dias</t>
+          <t>Amanda Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>5663.73</v>
+        <v>3531.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46941</v>
+        <v>36477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Murilo Castro</t>
+          <t>Esther Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>9716.51</v>
+        <v>6423.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27161</v>
+        <v>79091</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nathan Costa</t>
+          <t>Pietro da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>5671.87</v>
+        <v>12149.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86992</v>
+        <v>33406</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gabriel Correia</t>
+          <t>Enrico Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>5769.77</v>
+        <v>6840.49</v>
       </c>
     </row>
   </sheetData>
